--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T23:50:16+00:00</t>
+    <t>2021-09-14T04:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,6 +494,205 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://moh.bw.org/ext/identifier/omang</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -524,9 +723,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -566,34 +762,9 @@
     <t>Patient.name.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Patient.name.use</t>
   </si>
   <si>
@@ -607,9 +778,6 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -740,10 +908,6 @@
     <t>Patient.name.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -911,10 +1075,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -922,9 +1082,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -1134,10 +1291,6 @@
   </si>
   <si>
     <t>Patient.contact.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that is associated with the contact</t>
@@ -1686,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1718,7 +1871,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="71.51171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.93359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -2896,7 +3049,7 @@
         <v>89</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3016,76 +3169,70 @@
         <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3097,16 +3244,16 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>82</v>
@@ -3115,45 +3262,43 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3189,16 +3334,16 @@
         <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>164</v>
@@ -3213,19 +3358,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3233,7 +3378,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3250,22 +3395,26 @@
         <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3289,13 +3438,13 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>82</v>
@@ -3313,7 +3462,7 @@
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3325,10 +3474,10 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -3337,7 +3486,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -3345,18 +3494,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -3365,21 +3514,23 @@
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
       </c>
@@ -3403,46 +3554,46 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3451,7 +3602,7 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -3459,7 +3610,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3476,25 +3627,25 @@
         <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3504,10 +3655,10 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3519,13 +3670,13 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
@@ -3543,7 +3694,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3558,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
@@ -3567,7 +3718,7 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
@@ -3575,7 +3726,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3583,7 +3734,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>89</v>
@@ -3601,17 +3752,15 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>199</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3623,7 +3772,7 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>82</v>
@@ -3659,7 +3808,7 @@
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3674,7 +3823,7 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -3683,19 +3832,19 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3705,7 +3854,7 @@
         <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -3714,17 +3863,15 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M18" t="s" s="2">
         <v>207</v>
       </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>82</v>
@@ -3803,23 +3950,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -3828,7 +3975,7 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>213</v>
@@ -3893,7 +4040,7 @@
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>82</v>
@@ -3930,32 +4077,38 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="Q20" t="s" s="2">
         <v>82</v>
       </c>
@@ -3999,13 +4152,13 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>82</v>
@@ -4014,24 +4167,24 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4039,13 +4192,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4054,16 +4207,20 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4123,19 +4280,19 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4143,7 +4300,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4163,21 +4320,19 @@
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4225,7 +4380,7 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4237,10 +4392,10 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -4249,19 +4404,19 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>239</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4271,29 +4426,27 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4329,19 +4482,19 @@
         <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4353,27 +4506,27 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4381,16 +4534,16 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>81</v>
@@ -4399,16 +4552,16 @@
         <v>108</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>82</v>
@@ -4433,13 +4586,13 @@
         <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>82</v>
@@ -4457,7 +4610,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4472,16 +4625,16 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -4489,7 +4642,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4497,7 +4650,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>89</v>
@@ -4512,19 +4665,19 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>82</v>
@@ -4573,7 +4726,7 @@
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4588,28 +4741,28 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4619,29 +4772,27 @@
         <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4689,7 +4840,7 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4704,16 +4855,16 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
@@ -4721,11 +4872,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4744,20 +4895,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>82</v>
       </c>
@@ -4805,7 +4954,7 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4817,27 +4966,27 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4845,33 +4994,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>82</v>
       </c>
@@ -4895,13 +5042,13 @@
         <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>82</v>
@@ -4919,13 +5066,13 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
@@ -4934,16 +5081,16 @@
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -4951,7 +5098,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4962,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>82</v>
@@ -4971,23 +5118,19 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>298</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5035,13 +5178,13 @@
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>82</v>
@@ -5050,16 +5193,16 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
@@ -5067,7 +5210,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5078,7 +5221,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5087,22 +5230,20 @@
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>82</v>
@@ -5151,13 +5292,13 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5166,16 +5307,16 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5183,7 +5324,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5203,22 +5344,22 @@
         <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>82</v>
@@ -5267,7 +5408,7 @@
         <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5279,27 +5420,27 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5307,31 +5448,35 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5355,13 +5500,13 @@
         <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>82</v>
@@ -5379,7 +5524,7 @@
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5391,61 +5536,63 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5493,50 +5640,50 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>82</v>
@@ -5548,19 +5695,19 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>82</v>
@@ -5609,31 +5756,31 @@
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -5641,7 +5788,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5661,22 +5808,22 @@
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>82</v>
@@ -5701,11 +5848,13 @@
         <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>82</v>
@@ -5723,7 +5872,7 @@
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5732,22 +5881,22 @@
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -5755,7 +5904,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5763,7 +5912,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>89</v>
@@ -5778,17 +5927,17 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>82</v>
@@ -5813,13 +5962,13 @@
         <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>82</v>
@@ -5837,7 +5986,7 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5852,24 +6001,24 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>171</v>
+        <v>346</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5880,10 +6029,10 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -5892,19 +6041,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>82</v>
@@ -5953,13 +6102,13 @@
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
@@ -5968,24 +6117,24 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5996,10 +6145,10 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6008,17 +6157,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
@@ -6067,13 +6218,13 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
@@ -6082,24 +6233,24 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6110,10 +6261,10 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6122,17 +6273,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>82</v>
@@ -6157,13 +6310,13 @@
         <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>82</v>
@@ -6181,39 +6334,39 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6227,7 +6380,7 @@
         <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6236,18 +6389,16 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>358</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6295,7 +6446,7 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>357</v>
+        <v>157</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6304,22 +6455,22 @@
         <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>363</v>
+        <v>158</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -6327,18 +6478,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>82</v>
@@ -6350,15 +6501,17 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>82</v>
@@ -6407,25 +6560,25 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -6437,13 +6590,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6453,28 +6606,28 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>82</v>
@@ -6523,7 +6676,7 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6535,13 +6688,13 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -6553,9 +6706,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6566,10 +6719,10 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6578,16 +6731,20 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>82</v>
       </c>
@@ -6611,13 +6768,11 @@
         <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>82</v>
@@ -6635,22 +6790,22 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>177</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>162</v>
+        <v>388</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -6659,29 +6814,29 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -6690,18 +6845,18 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>82</v>
       </c>
@@ -6749,43 +6904,43 @@
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6795,28 +6950,28 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>137</v>
+        <v>398</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>143</v>
+        <v>298</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>82</v>
@@ -6865,7 +7020,7 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -6877,19 +7032,19 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -6897,7 +7052,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6905,7 +7060,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>89</v>
@@ -6920,19 +7075,17 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>82</v>
@@ -6957,11 +7110,13 @@
         <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>82</v>
@@ -6979,10 +7134,10 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>89</v>
@@ -6994,16 +7149,16 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7011,7 +7166,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7034,19 +7189,17 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>82</v>
@@ -7071,13 +7224,13 @@
         <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>82</v>
@@ -7095,7 +7248,7 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7110,16 +7263,16 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>394</v>
+        <v>158</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -7127,18 +7280,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7150,18 +7303,18 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7209,31 +7362,31 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7241,7 +7394,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7261,23 +7414,19 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>358</v>
+        <v>205</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7325,7 +7474,7 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7340,10 +7489,10 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>409</v>
+        <v>158</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
@@ -7355,9 +7504,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7371,28 +7520,28 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>82</v>
@@ -7441,7 +7590,7 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7456,10 +7605,10 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>162</v>
+        <v>426</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
@@ -7473,7 +7622,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7499,10 +7648,10 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7553,7 +7702,7 @@
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7568,7 +7717,7 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -7585,7 +7734,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7614,7 +7763,7 @@
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>137</v>
@@ -7667,7 +7816,7 @@
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7682,7 +7831,7 @@
         <v>139</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -7699,11 +7848,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7725,10 +7874,10 @@
         <v>134</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>137</v>
@@ -7783,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7813,9 +7962,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7829,27 +7978,29 @@
         <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>82</v>
       </c>
@@ -7873,13 +8024,11 @@
         <v>82</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>82</v>
@@ -7897,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>89</v>
@@ -7912,16 +8061,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>150</v>
+        <v>436</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>162</v>
+        <v>437</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -7929,7 +8078,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7937,7 +8086,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>89</v>
@@ -7949,19 +8098,23 @@
         <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>82</v>
       </c>
@@ -7985,13 +8138,13 @@
         <v>82</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>82</v>
@@ -8009,10 +8162,10 @@
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8024,23 +8177,937 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>162</v>
+        <v>445</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8050,7 +9117,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T04:26:25+00:00</t>
+    <t>2021-09-16T21:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T21:56:02+00:00</t>
+    <t>2022-01-27T20:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:53:37+00:00</t>
+    <t>2022-01-27T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:03:35+00:00</t>
+    <t>2022-01-27T21:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:13:11+00:00</t>
+    <t>2022-01-27T21:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:19:29+00:00</t>
+    <t>2022-01-27T21:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:25:27+00:00</t>
+    <t>2022-01-27T21:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:29:22+00:00</t>
+    <t>2022-01-27T21:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:47:10+00:00</t>
+    <t>2022-01-27T21:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:37+00:00</t>
+    <t>2022-01-27T21:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:46+00:00</t>
+    <t>2022-02-05T00:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omang-patient.xlsx
+++ b/StructureDefinition-omang-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-05T00:41:59+00:00</t>
+    <t>2022-02-05T01:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
